--- a/GenNPC.xlsx
+++ b/GenNPC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacos\pyRepos\NPCgen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0E75EA-8444-46FA-B52F-49E76959B51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD7055B-F62F-47D9-B6FF-0B111514435E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5505" yWindow="360" windowWidth="10230" windowHeight="10560" xr2:uid="{7DE0866E-C4A5-4E61-BA28-77CED4F27C42}"/>
+    <workbookView xWindow="5505" yWindow="360" windowWidth="10230" windowHeight="10560" firstSheet="1" activeTab="2" xr2:uid="{7DE0866E-C4A5-4E61-BA28-77CED4F27C42}"/>
   </bookViews>
   <sheets>
     <sheet name="Appearance" sheetId="1" r:id="rId1"/>
@@ -980,7 +980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE21B06E-58D6-4218-9439-9C871FB7D959}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1718,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD5DF06-89AB-47DB-BC57-07767116191D}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GenNPC.xlsx
+++ b/GenNPC.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacos\pyRepos\NPCgen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD7055B-F62F-47D9-B6FF-0B111514435E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACC724E-CE30-40B6-8755-85847A4BFB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5505" yWindow="360" windowWidth="10230" windowHeight="10560" firstSheet="1" activeTab="2" xr2:uid="{7DE0866E-C4A5-4E61-BA28-77CED4F27C42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{7DE0866E-C4A5-4E61-BA28-77CED4F27C42}"/>
   </bookViews>
   <sheets>
     <sheet name="Appearance" sheetId="1" r:id="rId1"/>
-    <sheet name="Motivations" sheetId="2" r:id="rId2"/>
-    <sheet name="Quirks" sheetId="3" r:id="rId3"/>
+    <sheet name="Items&amp;Clothing" sheetId="4" r:id="rId2"/>
+    <sheet name="Motivations" sheetId="2" r:id="rId3"/>
+    <sheet name="Quirks" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="197">
   <si>
     <t>Human</t>
   </si>
@@ -978,9 +979,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE21B06E-58D6-4218-9439-9C871FB7D959}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1159,7 +1162,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
@@ -1176,7 +1179,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>61</v>
@@ -1193,7 +1196,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
@@ -1210,7 +1213,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>63</v>
@@ -1227,7 +1230,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -1244,7 +1247,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
         <v>66</v>
@@ -1258,7 +1261,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
         <v>68</v>
@@ -1269,7 +1272,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
         <v>69</v>
@@ -1277,7 +1280,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -1285,7 +1288,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="B20" t="s">
         <v>90</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="B21" t="s">
         <v>144</v>
@@ -1301,177 +1304,12 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1480,6 +1318,191 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2F5D45-E4BE-4A32-932E-07B791413161}">
+  <dimension ref="A1:A34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492D68EC-0120-480B-973E-1918D12265CF}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -1714,11 +1737,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD5DF06-89AB-47DB-BC57-07767116191D}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/GenNPC.xlsx
+++ b/GenNPC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacos\pyRepos\NPCgen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACC724E-CE30-40B6-8755-85847A4BFB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFB6754-77DF-43DD-AE4E-D280EF104546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{7DE0866E-C4A5-4E61-BA28-77CED4F27C42}"/>
   </bookViews>

--- a/GenNPC.xlsx
+++ b/GenNPC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacos\pyRepos\NPCgen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFB6754-77DF-43DD-AE4E-D280EF104546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF7807A-8AA1-40B2-B1C6-70D49B667EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{7DE0866E-C4A5-4E61-BA28-77CED4F27C42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{7DE0866E-C4A5-4E61-BA28-77CED4F27C42}"/>
   </bookViews>
   <sheets>
     <sheet name="Appearance" sheetId="1" r:id="rId1"/>
@@ -486,27 +486,6 @@
     <t>Fears</t>
   </si>
   <si>
-    <t>Heights</t>
-  </si>
-  <si>
-    <t>The dark</t>
-  </si>
-  <si>
-    <t>Fire</t>
-  </si>
-  <si>
-    <t>Water/Ocean</t>
-  </si>
-  <si>
-    <t>Snakes</t>
-  </si>
-  <si>
-    <t>Spiders</t>
-  </si>
-  <si>
-    <t>Holes</t>
-  </si>
-  <si>
     <t>Agoraphobia</t>
   </si>
   <si>
@@ -628,6 +607,27 @@
   </si>
   <si>
     <t>General</t>
+  </si>
+  <si>
+    <t>Fear of the dark</t>
+  </si>
+  <si>
+    <t>Fear of fire</t>
+  </si>
+  <si>
+    <t>Fear of heights</t>
+  </si>
+  <si>
+    <t>Fear of water/the ocean</t>
+  </si>
+  <si>
+    <t>Fear of snakes</t>
+  </si>
+  <si>
+    <t>Fear of spiders</t>
+  </si>
+  <si>
+    <t>Fear of holes</t>
   </si>
 </sst>
 </file>
@@ -992,7 +992,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1321,7 +1321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2F5D45-E4BE-4A32-932E-07B791413161}">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A31" sqref="A31:A34"/>
     </sheetView>
   </sheetViews>
@@ -1329,7 +1329,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1517,33 +1517,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
         <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E2" t="s">
         <v>137</v>
@@ -1551,33 +1551,33 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C3" t="s">
         <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C4" t="s">
         <v>123</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E4" t="s">
         <v>139</v>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B5" t="s">
         <v>133</v>
@@ -1594,7 +1594,7 @@
         <v>124</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E5" t="s">
         <v>140</v>
@@ -1605,13 +1605,13 @@
         <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
         <v>125</v>
       </c>
       <c r="D6" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E6" t="s">
         <v>138</v>
@@ -1619,16 +1619,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
         <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E7" t="s">
         <v>141</v>
@@ -1653,16 +1653,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B9" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C9" t="s">
         <v>129</v>
       </c>
       <c r="D9" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E9" t="s">
         <v>143</v>
@@ -1676,18 +1676,18 @@
         <v>130</v>
       </c>
       <c r="D10" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C11" t="s">
         <v>134</v>
       </c>
       <c r="D11" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1698,7 +1698,7 @@
         <v>135</v>
       </c>
       <c r="D12" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1709,7 +1709,7 @@
         <v>136</v>
       </c>
       <c r="D13" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1724,12 +1724,12 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -1741,8 +1741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD5DF06-89AB-47DB-BC57-07767116191D}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1752,67 +1752,67 @@
         <v>148</v>
       </c>
       <c r="B1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/GenNPC.xlsx
+++ b/GenNPC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacos\pyRepos\NPCgen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF7807A-8AA1-40B2-B1C6-70D49B667EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C07CA23-0290-43D0-A702-FADB4815407C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{7DE0866E-C4A5-4E61-BA28-77CED4F27C42}"/>
   </bookViews>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:A34"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
